--- a/UNIDADES_SANEAR_2025.xlsx
+++ b/UNIDADES_SANEAR_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.0.2.200\Engenharia\_DIRTEC_ 2025\ALBERTO TEMÁTICOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6525AACC-2A73-4E78-856B-7CEDB425FDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC38756-C7FD-41EE-AE38-835C8FE3AB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15990" tabRatio="651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VISÃO GERAL" sheetId="8" r:id="rId1"/>
@@ -35,23 +35,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11495" uniqueCount="1238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11493" uniqueCount="1238">
   <si>
     <t>ID</t>
   </si>
@@ -5241,9 +5230,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5281,7 +5270,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5387,7 +5376,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5529,7 +5518,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5543,8 +5532,8 @@
   <dimension ref="A1:O206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M114" sqref="M114"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5626,11 +5615,11 @@
       <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
-        <v>1216</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1217</v>
+      <c r="I2">
+        <v>-1627182</v>
+      </c>
+      <c r="J2">
+        <v>-54385321</v>
       </c>
       <c r="K2">
         <v>751120</v>

--- a/UNIDADES_SANEAR_2025.xlsx
+++ b/UNIDADES_SANEAR_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC38756-C7FD-41EE-AE38-835C8FE3AB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBA2E77-AE2D-43B2-AA9D-84AD80541D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4316,7 +4316,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4354,6 +4354,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5618,7 +5619,7 @@
       <c r="I2">
         <v>-1627182</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="17">
         <v>-54385321</v>
       </c>
       <c r="K2">

--- a/UNIDADES_SANEAR_2025.xlsx
+++ b/UNIDADES_SANEAR_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBA2E77-AE2D-43B2-AA9D-84AD80541D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FEA546-83CB-4393-8920-52FEF817E353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5534,7 +5534,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5616,7 +5616,7 @@
       <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="17">
         <v>-1627182</v>
       </c>
       <c r="J2" s="17">
